--- a/PC-ORD/Original Data/combined2.xlsx
+++ b/PC-ORD/Original Data/combined2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cedar\Documents\GitHub\Thesis\PC-ORD\Original Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB835E6B-1853-43B5-BF9D-AD60106B6368}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBE1DE98-2093-438A-A01C-7F7C555B6580}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="36">
   <si>
     <t>Stream</t>
   </si>
@@ -125,7 +125,16 @@
     <t>Fish</t>
   </si>
   <si>
-    <t>Surber</t>
+    <t>Stream.Treat</t>
+  </si>
+  <si>
+    <t>Type.Treat</t>
+  </si>
+  <si>
+    <t>Benthic</t>
+  </si>
+  <si>
+    <t>Stream.Type</t>
   </si>
 </sst>
 </file>
@@ -519,10 +528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12:D21"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -530,7 +539,7 @@
     <col min="1" max="256" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -543,8 +552,17 @@
       <c r="D1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -555,10 +573,22 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="E2" t="str">
+        <f xml:space="preserve"> B2&amp; " "&amp;C2</f>
+        <v>CHUCK N</v>
+      </c>
+      <c r="F2" t="str">
+        <f xml:space="preserve"> D2&amp;" "&amp;C2</f>
+        <v>Benthic N</v>
+      </c>
+      <c r="G2" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT(B2," ",LEFT(D2,1))</f>
+        <v>CHUCK B</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -569,10 +599,22 @@
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E21" si="0" xml:space="preserve"> B3&amp; " "&amp;C3</f>
+        <v>CHUCK Y</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F21" si="1" xml:space="preserve"> D3&amp;" "&amp;C3</f>
+        <v>Benthic Y</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G21" si="2" xml:space="preserve"> _xlfn.CONCAT(B3," ",LEFT(D3,1))</f>
+        <v>CHUCK B</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -583,10 +625,22 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>LOON N</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="1"/>
+        <v>Benthic N</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="2"/>
+        <v>LOON B</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -597,10 +651,22 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>LOON Y</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="1"/>
+        <v>Benthic Y</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="2"/>
+        <v>LOON B</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -611,10 +677,22 @@
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>MCTE N</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="1"/>
+        <v>Benthic N</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="2"/>
+        <v>MCTE B</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -625,10 +703,22 @@
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>MCTE Y</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="1"/>
+        <v>Benthic Y</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="2"/>
+        <v>MCTE B</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -639,10 +729,22 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>W-100 N</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="1"/>
+        <v>Benthic N</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="2"/>
+        <v>W-100 B</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -653,10 +755,22 @@
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>W-100 Y</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="1"/>
+        <v>Benthic Y</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="2"/>
+        <v>W-100 B</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -667,10 +781,22 @@
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v>W-113 N</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="1"/>
+        <v>Benthic N</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="2"/>
+        <v>W-113 B</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -681,10 +807,22 @@
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
+        <v>W-113 Y</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="1"/>
+        <v>Benthic Y</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="2"/>
+        <v>W-113 B</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -697,8 +835,20 @@
       <c r="D12" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" t="str">
+        <f t="shared" si="0"/>
+        <v>CHUCK N</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="1"/>
+        <v>Fish N</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="2"/>
+        <v>CHUCK F</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
@@ -711,8 +861,20 @@
       <c r="D13" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" t="str">
+        <f t="shared" si="0"/>
+        <v>CHUCK Y</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="1"/>
+        <v>Fish Y</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="2"/>
+        <v>CHUCK F</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
@@ -725,8 +887,20 @@
       <c r="D14" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" t="str">
+        <f t="shared" si="0"/>
+        <v>LOON N</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="1"/>
+        <v>Fish N</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="2"/>
+        <v>LOON F</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
@@ -739,8 +913,20 @@
       <c r="D15" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" t="str">
+        <f t="shared" si="0"/>
+        <v>LOON Y</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="1"/>
+        <v>Fish Y</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="2"/>
+        <v>LOON F</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
@@ -753,8 +939,20 @@
       <c r="D16" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" t="str">
+        <f t="shared" si="0"/>
+        <v>MCTE N</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="1"/>
+        <v>Fish N</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="2"/>
+        <v>MCTE F</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
@@ -767,8 +965,20 @@
       <c r="D17" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" t="str">
+        <f t="shared" si="0"/>
+        <v>MCTE Y</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="1"/>
+        <v>Fish Y</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="2"/>
+        <v>MCTE F</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
@@ -781,8 +991,20 @@
       <c r="D18" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" t="str">
+        <f t="shared" si="0"/>
+        <v>W-100 N</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="1"/>
+        <v>Fish N</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="2"/>
+        <v>W-100 F</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
@@ -795,8 +1017,20 @@
       <c r="D19" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" t="str">
+        <f t="shared" si="0"/>
+        <v>W-100 Y</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="1"/>
+        <v>Fish Y</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="2"/>
+        <v>W-100 F</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>28</v>
       </c>
@@ -809,8 +1043,20 @@
       <c r="D20" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" t="str">
+        <f t="shared" si="0"/>
+        <v>W-113 N</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="1"/>
+        <v>Fish N</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="2"/>
+        <v>W-113 F</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>29</v>
       </c>
@@ -822,6 +1068,18 @@
       </c>
       <c r="D21" t="s">
         <v>31</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="0"/>
+        <v>W-113 Y</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="1"/>
+        <v>Fish Y</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="2"/>
+        <v>W-113 F</v>
       </c>
     </row>
   </sheetData>
